--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283524.920594372</v>
+        <v>1278991.27006278</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7510923.090428379</v>
+        <v>7510923.090428383</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5551508.607007037</v>
+        <v>5551508.607007036</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>48.54508817037556</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>137.7251225421264</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95.00147343978338</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1466,7 +1466,7 @@
         <v>104.813694600883</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>12.47654080285209</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.4974397254855</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H13" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>233.1895850495404</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>127.6519221667671</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>260.2921140958544</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I14" t="n">
         <v>5.758835338221843</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T14" t="n">
         <v>210.9314267726901</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>83.55330197236739</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>101.2542223101839</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>104.813694600883</v>
       </c>
       <c r="H15" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>153.288405331309</v>
       </c>
       <c r="U15" t="n">
-        <v>19.8520259131253</v>
+        <v>195.3045055848791</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>87.29940452202355</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.1895850495404</v>
@@ -1824,16 +1824,16 @@
         <v>279.9195659803985</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.6863648596422</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>402.5729276076336</v>
       </c>
       <c r="H17" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>359.8336797677628</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>353.4696221099842</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028022</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1940,7 +1940,7 @@
         <v>104.813694600883</v>
       </c>
       <c r="H18" t="n">
-        <v>59.35311653050252</v>
+        <v>59.35311653050276</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.5400644131575</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,7 +2016,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.1895850495404</v>
+        <v>123.2977043147405</v>
       </c>
       <c r="U19" t="n">
         <v>279.9195659803985</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>374.5134806893968</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T20" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.324440930408</v>
@@ -2146,10 +2146,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>217.9590822115273</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>104.813694600883</v>
       </c>
       <c r="H21" t="n">
-        <v>59.35311653050252</v>
+        <v>59.35311653050276</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>153.288405331309</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3045055848798</v>
+        <v>195.3045055848791</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>13.44644653808859</v>
       </c>
       <c r="C22" t="n">
-        <v>143.5278931603151</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>360.0460257352464</v>
+        <v>183.6292573488921</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H23" t="n">
         <v>286.6197530438301</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.758835338221843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.564923299072299</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2493,10 +2493,10 @@
         <v>164.6502205165041</v>
       </c>
       <c r="H25" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.43039829155021</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S25" t="n">
         <v>168.3611507780025</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>335.7767147223677</v>
       </c>
       <c r="F26" t="n">
-        <v>301.7973873073388</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H26" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>86.8020359616258</v>
       </c>
       <c r="T26" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2721,13 +2721,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6502205165041</v>
+        <v>47.36381238917244</v>
       </c>
       <c r="H28" t="n">
         <v>139.8635808156043</v>
@@ -2772,16 +2772,16 @@
         <v>279.9195659803985</v>
       </c>
       <c r="V28" t="n">
-        <v>8.030854395968159</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>357.2922715336852</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I29" t="n">
         <v>5.758835338221843</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>110.6271868878569</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>31.03467065012313</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H31" t="n">
         <v>139.8635808156043</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>168.3611507780025</v>
       </c>
       <c r="T31" t="n">
-        <v>233.1895850495404</v>
+        <v>18.68653991131585</v>
       </c>
       <c r="U31" t="n">
         <v>279.9195659803985</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>360.4607556843598</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,7 +3046,7 @@
         <v>402.5729276076336</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.073401889022797</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>40.61329010298738</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3243,7 +3243,7 @@
         <v>233.1895850495404</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>174.7032309968126</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>329.4449190713659</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>134.9002668919184</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>86.35704260789387</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T36" t="n">
-        <v>153.2884053313091</v>
+        <v>153.288405331309</v>
       </c>
       <c r="U36" t="n">
         <v>195.3045055848789</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>145.8986426918382</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.3611507780025</v>
@@ -3480,19 +3480,19 @@
         <v>233.1895850495404</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>2.066396506540264</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3514,13 +3514,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>268.2353619741731</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>51.97526045973915</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3635,7 +3635,7 @@
         <v>86.35704260789379</v>
       </c>
       <c r="T39" t="n">
-        <v>153.288405331309</v>
+        <v>153.2884053313089</v>
       </c>
       <c r="U39" t="n">
         <v>195.3045055848791</v>
@@ -3650,7 +3650,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398082</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>94.41523329912721</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U40" t="n">
-        <v>15.11704006178363</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>74.699791067787</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>319.7432068438447</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3827,7 +3827,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3836,7 +3836,7 @@
         <v>104.813694600883</v>
       </c>
       <c r="H42" t="n">
-        <v>59.35311653050252</v>
+        <v>58.463358901245</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>153.288405331309</v>
       </c>
       <c r="U42" t="n">
-        <v>0.2399114514901294</v>
+        <v>195.3045055848791</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3884,7 +3884,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I43" t="n">
-        <v>36.04750861964428</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.3611507780025</v>
+        <v>21.05986598708756</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.0332547172393</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>86.8020359616258</v>
+        <v>15.09243709038185</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4058,22 +4058,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>44.04165277761571</v>
       </c>
       <c r="G45" t="n">
-        <v>104.813694600883</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.35704260789379</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>153.288405331309</v>
@@ -4124,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>91.83876480016941</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>139.8635808156043</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.11875906496733</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>42.70872534962579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T46" t="n">
         <v>233.1895850495404</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>65.98974641261751</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>444.2258413771486</v>
+        <v>1265.205377676044</v>
       </c>
       <c r="C11" t="n">
-        <v>34.10125069041869</v>
+        <v>855.0807869893135</v>
       </c>
       <c r="D11" t="n">
-        <v>34.10125069041869</v>
+        <v>855.0807869893135</v>
       </c>
       <c r="E11" t="n">
-        <v>34.10125069041869</v>
+        <v>440.7405715062102</v>
       </c>
       <c r="F11" t="n">
-        <v>34.10125069041869</v>
+        <v>440.7405715062102</v>
       </c>
       <c r="G11" t="n">
         <v>34.10125069041869</v>
@@ -5062,31 +5062,31 @@
         <v>1530.93007424132</v>
       </c>
       <c r="Q11" t="n">
-        <v>1662.892010278599</v>
+        <v>1662.8920102786</v>
       </c>
       <c r="R11" t="n">
-        <v>1705.062534520934</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="S11" t="n">
-        <v>1705.062534520934</v>
+        <v>1617.383710317272</v>
       </c>
       <c r="T11" t="n">
-        <v>1705.062534520934</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="U11" t="n">
-        <v>1705.062534520934</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="V11" t="n">
-        <v>1705.062534520934</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="W11" t="n">
-        <v>1656.027091924595</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="X11" t="n">
-        <v>1255.383694093548</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="Y11" t="n">
-        <v>854.447021041638</v>
+        <v>1265.205377676044</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>620.3185943360187</v>
+        <v>563.3740795155147</v>
       </c>
       <c r="C12" t="n">
-        <v>486.3235230849644</v>
+        <v>429.3790082644604</v>
       </c>
       <c r="D12" t="n">
-        <v>369.4263653043568</v>
+        <v>429.3790082644604</v>
       </c>
       <c r="E12" t="n">
-        <v>248.9335492966848</v>
+        <v>308.8861922567884</v>
       </c>
       <c r="F12" t="n">
-        <v>139.9736694791894</v>
+        <v>199.9263124392929</v>
       </c>
       <c r="G12" t="n">
-        <v>34.10125069041869</v>
+        <v>94.05389365052226</v>
       </c>
       <c r="H12" t="n">
         <v>34.10125069041869</v>
@@ -5120,52 +5120,52 @@
         <v>51.48176916722375</v>
       </c>
       <c r="J12" t="n">
-        <v>104.1223936880552</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K12" t="n">
-        <v>279.407416706977</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L12" t="n">
-        <v>461.7064099846529</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M12" t="n">
-        <v>682.2802682614514</v>
+        <v>872.2875650121721</v>
       </c>
       <c r="N12" t="n">
-        <v>914.5275614197149</v>
+        <v>1104.534858170435</v>
       </c>
       <c r="O12" t="n">
-        <v>1117.989444412412</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P12" t="n">
-        <v>1273.455651201985</v>
+        <v>1463.462947952705</v>
       </c>
       <c r="Q12" t="n">
-        <v>1695.458628495916</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R12" t="n">
-        <v>1705.062534520934</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="S12" t="n">
         <v>1617.833198553365</v>
       </c>
       <c r="T12" t="n">
-        <v>1462.996425491436</v>
+        <v>1462.996425491437</v>
       </c>
       <c r="U12" t="n">
         <v>1265.719147122872</v>
       </c>
       <c r="V12" t="n">
-        <v>1052.007620115905</v>
+        <v>1052.007620115906</v>
       </c>
       <c r="W12" t="n">
-        <v>1052.007620115905</v>
+        <v>1039.405053648378</v>
       </c>
       <c r="X12" t="n">
-        <v>875.6816382547981</v>
+        <v>863.0790717872713</v>
       </c>
       <c r="Y12" t="n">
-        <v>716.2796786186282</v>
+        <v>703.6771121511014</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.987694369647</v>
+        <v>371.5079771857771</v>
       </c>
       <c r="C13" t="n">
-        <v>914.8943219313635</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="D13" t="n">
-        <v>755.3996772542735</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="E13" t="n">
-        <v>594.4888621225929</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="F13" t="n">
-        <v>429.8577362331841</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="G13" t="n">
-        <v>263.5443821761093</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H13" t="n">
-        <v>122.2680379179232</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I13" t="n">
         <v>34.10125069041869</v>
@@ -5202,49 +5202,49 @@
         <v>113.1139717336499</v>
       </c>
       <c r="K13" t="n">
-        <v>374.3665172177374</v>
+        <v>374.3665172177375</v>
       </c>
       <c r="L13" t="n">
-        <v>456.824049398713</v>
+        <v>770.8031606337361</v>
       </c>
       <c r="M13" t="n">
-        <v>878.8270266926443</v>
+        <v>1192.806137927667</v>
       </c>
       <c r="N13" t="n">
-        <v>968.1702216913603</v>
+        <v>1297.859193432856</v>
       </c>
       <c r="O13" t="n">
-        <v>1245.881333411844</v>
+        <v>1372.155293617681</v>
       </c>
       <c r="P13" t="n">
-        <v>1562.631867331538</v>
+        <v>1688.905827537376</v>
       </c>
       <c r="Q13" t="n">
-        <v>1705.062534520934</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="R13" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="S13" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T13" t="n">
-        <v>1426.377372501575</v>
+        <v>1469.517499117359</v>
       </c>
       <c r="U13" t="n">
-        <v>1426.377372501575</v>
+        <v>1186.770462773522</v>
       </c>
       <c r="V13" t="n">
-        <v>1426.377372501575</v>
+        <v>912.8847177130438</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.377372501575</v>
+        <v>783.9433821910568</v>
       </c>
       <c r="X13" t="n">
-        <v>1426.377372501575</v>
+        <v>783.9433821910568</v>
       </c>
       <c r="Y13" t="n">
-        <v>1201.641673890339</v>
+        <v>559.2076835798215</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>707.3035133590514</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="C14" t="n">
-        <v>707.3035133590514</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="D14" t="n">
-        <v>302.8395834521119</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="E14" t="n">
-        <v>302.8395834521119</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="F14" t="n">
-        <v>302.8395834521119</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="G14" t="n">
-        <v>39.91825608256197</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="H14" t="n">
         <v>39.91825608256197</v>
@@ -5287,7 +5287,7 @@
         <v>536.035256320542</v>
       </c>
       <c r="M14" t="n">
-        <v>803.1822165017562</v>
+        <v>803.1822165017561</v>
       </c>
       <c r="N14" t="n">
         <v>1076.520486185678</v>
@@ -5305,25 +5305,25 @@
         <v>1705.062534520934</v>
       </c>
       <c r="S14" t="n">
-        <v>1705.062534520934</v>
+        <v>1617.383710317272</v>
       </c>
       <c r="T14" t="n">
-        <v>1492.000487275793</v>
+        <v>1404.32166307213</v>
       </c>
       <c r="U14" t="n">
-        <v>1492.000487275793</v>
+        <v>1147.428288394951</v>
       </c>
       <c r="V14" t="n">
-        <v>1492.000487275793</v>
+        <v>797.5907337314313</v>
       </c>
       <c r="W14" t="n">
-        <v>1108.240186410961</v>
+        <v>413.8304328665999</v>
       </c>
       <c r="X14" t="n">
-        <v>1108.240186410961</v>
+        <v>329.4331581470369</v>
       </c>
       <c r="Y14" t="n">
-        <v>707.3035133590514</v>
+        <v>329.4331581470369</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>680.2712372961223</v>
+        <v>362.7434777193704</v>
       </c>
       <c r="C15" t="n">
-        <v>546.276166045068</v>
+        <v>362.7434777193704</v>
       </c>
       <c r="D15" t="n">
-        <v>429.3790082644604</v>
+        <v>260.4664854868614</v>
       </c>
       <c r="E15" t="n">
-        <v>308.8861922567884</v>
+        <v>139.9736694791894</v>
       </c>
       <c r="F15" t="n">
-        <v>199.9263124392929</v>
+        <v>139.9736694791894</v>
       </c>
       <c r="G15" t="n">
-        <v>94.05389365052224</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H15" t="n">
         <v>34.10125069041869</v>
       </c>
       <c r="I15" t="n">
-        <v>34.10125069041869</v>
+        <v>51.48176916722375</v>
       </c>
       <c r="J15" t="n">
-        <v>86.74187521125017</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K15" t="n">
-        <v>311.1918156831863</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L15" t="n">
-        <v>493.4908089608622</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M15" t="n">
-        <v>714.0646672376607</v>
+        <v>872.2875650121721</v>
       </c>
       <c r="N15" t="n">
-        <v>946.3119603959242</v>
+        <v>1104.534858170435</v>
       </c>
       <c r="O15" t="n">
-        <v>1368.314937689855</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P15" t="n">
-        <v>1523.781144479428</v>
+        <v>1463.462947952705</v>
       </c>
       <c r="Q15" t="n">
-        <v>1607.488912018935</v>
+        <v>1695.458628495916</v>
       </c>
       <c r="R15" t="n">
         <v>1705.062534520934</v>
@@ -5390,19 +5390,19 @@
         <v>1462.996425491436</v>
       </c>
       <c r="U15" t="n">
-        <v>1442.943874064037</v>
+        <v>1265.719147122872</v>
       </c>
       <c r="V15" t="n">
-        <v>1229.232347057071</v>
+        <v>1052.007620115905</v>
       </c>
       <c r="W15" t="n">
-        <v>1015.9991787934</v>
+        <v>838.7744518522342</v>
       </c>
       <c r="X15" t="n">
-        <v>839.6731969322923</v>
+        <v>662.448469991127</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.2712372961223</v>
+        <v>503.046510354957</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.10125069041869</v>
+        <v>535.9911956279251</v>
       </c>
       <c r="C16" t="n">
-        <v>34.10125069041869</v>
+        <v>535.9911956279251</v>
       </c>
       <c r="D16" t="n">
-        <v>34.10125069041869</v>
+        <v>535.9911956279251</v>
       </c>
       <c r="E16" t="n">
-        <v>34.10125069041869</v>
+        <v>375.0803804962446</v>
       </c>
       <c r="F16" t="n">
-        <v>34.10125069041869</v>
+        <v>210.4492546068358</v>
       </c>
       <c r="G16" t="n">
-        <v>34.10125069041869</v>
+        <v>210.4492546068358</v>
       </c>
       <c r="H16" t="n">
-        <v>34.10125069041869</v>
+        <v>122.2680379179232</v>
       </c>
       <c r="I16" t="n">
         <v>34.10125069041869</v>
@@ -5439,16 +5439,16 @@
         <v>113.1139717336499</v>
       </c>
       <c r="K16" t="n">
-        <v>168.0863236320233</v>
+        <v>374.3665172177374</v>
       </c>
       <c r="L16" t="n">
-        <v>250.5438558129989</v>
+        <v>660.2390609343711</v>
       </c>
       <c r="M16" t="n">
-        <v>435.1329773619763</v>
+        <v>1082.242038228302</v>
       </c>
       <c r="N16" t="n">
-        <v>856.5104738082778</v>
+        <v>1171.585233227018</v>
       </c>
       <c r="O16" t="n">
         <v>1245.881333411844</v>
@@ -5460,28 +5460,28 @@
         <v>1705.062534520934</v>
       </c>
       <c r="R16" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S16" t="n">
-        <v>1491.860639442522</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="T16" t="n">
-        <v>1256.315604038946</v>
+        <v>1469.517499117358</v>
       </c>
       <c r="U16" t="n">
-        <v>973.5685676951089</v>
+        <v>1186.770462773521</v>
       </c>
       <c r="V16" t="n">
-        <v>699.6828226346308</v>
+        <v>1186.770462773521</v>
       </c>
       <c r="W16" t="n">
-        <v>420.6131581435052</v>
+        <v>1186.770462773521</v>
       </c>
       <c r="X16" t="n">
-        <v>182.2692960031886</v>
+        <v>948.4266006332048</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.10125069041869</v>
+        <v>723.6909020219695</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.923264850953</v>
+        <v>1261.809250458589</v>
       </c>
       <c r="C17" t="n">
-        <v>1577.923264850953</v>
+        <v>851.6846597718589</v>
       </c>
       <c r="D17" t="n">
-        <v>1577.923264850953</v>
+        <v>447.2207298649195</v>
       </c>
       <c r="E17" t="n">
-        <v>1163.58304936785</v>
+        <v>447.2207298649195</v>
       </c>
       <c r="F17" t="n">
-        <v>742.5526373215376</v>
+        <v>447.2207298649195</v>
       </c>
       <c r="G17" t="n">
-        <v>335.9133165057461</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="H17" t="n">
-        <v>46.3984144412712</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I17" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="J17" t="n">
         <v>141.7609686323858</v>
@@ -5533,7 +5533,7 @@
         <v>1335.705440840914</v>
       </c>
       <c r="P17" t="n">
-        <v>1837.900377823872</v>
+        <v>1537.41023260003</v>
       </c>
       <c r="Q17" t="n">
         <v>1986.899928214061</v>
@@ -5542,25 +5542,25 @@
         <v>2029.070452456396</v>
       </c>
       <c r="S17" t="n">
-        <v>1941.391628252734</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.391628252734</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="U17" t="n">
-        <v>1941.391628252734</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="V17" t="n">
-        <v>1941.391628252734</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="W17" t="n">
-        <v>1577.923264850953</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="X17" t="n">
-        <v>1577.923264850953</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.923264850953</v>
+        <v>1672.030430123078</v>
       </c>
     </row>
     <row r="18">
@@ -5570,58 +5570,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>686.7513956548322</v>
+        <v>686.7513956548318</v>
       </c>
       <c r="C18" t="n">
-        <v>552.7563244037779</v>
+        <v>552.7563244037774</v>
       </c>
       <c r="D18" t="n">
-        <v>435.8591666231696</v>
+        <v>435.8591666231698</v>
       </c>
       <c r="E18" t="n">
-        <v>315.3663506154976</v>
+        <v>315.3663506154978</v>
       </c>
       <c r="F18" t="n">
-        <v>206.4064707980022</v>
+        <v>206.4064707980024</v>
       </c>
       <c r="G18" t="n">
-        <v>100.5340520092315</v>
+        <v>100.5340520092317</v>
       </c>
       <c r="H18" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I18" t="n">
-        <v>40.58140904912793</v>
+        <v>57.96192752593297</v>
       </c>
       <c r="J18" t="n">
-        <v>93.22203356995941</v>
+        <v>354.2709560213978</v>
       </c>
       <c r="K18" t="n">
-        <v>214.8459493649685</v>
+        <v>475.8948718164069</v>
       </c>
       <c r="L18" t="n">
-        <v>397.1449426426444</v>
+        <v>658.1938650940829</v>
       </c>
       <c r="M18" t="n">
-        <v>617.7188009194429</v>
+        <v>878.7677233708814</v>
       </c>
       <c r="N18" t="n">
-        <v>1119.913737902401</v>
+        <v>1111.015016529145</v>
       </c>
       <c r="O18" t="n">
-        <v>1323.375620895099</v>
+        <v>1314.476899521842</v>
       </c>
       <c r="P18" t="n">
-        <v>1478.841827684671</v>
+        <v>1469.943106311415</v>
       </c>
       <c r="Q18" t="n">
-        <v>1931.496829954397</v>
+        <v>1931.496829954396</v>
       </c>
       <c r="R18" t="n">
         <v>2029.070452456396</v>
       </c>
       <c r="S18" t="n">
-        <v>1941.841116488827</v>
+        <v>1941.841116488826</v>
       </c>
       <c r="T18" t="n">
         <v>1787.004343426898</v>
@@ -5636,10 +5636,10 @@
         <v>1162.782369787696</v>
       </c>
       <c r="X18" t="n">
-        <v>986.4563879265888</v>
+        <v>986.4563879265884</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.0544282904189</v>
+        <v>827.0544282904184</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7113671855907</v>
+        <v>691.931348804382</v>
       </c>
       <c r="C19" t="n">
-        <v>525.6179947473072</v>
+        <v>691.931348804382</v>
       </c>
       <c r="D19" t="n">
-        <v>366.1233500702172</v>
+        <v>532.436704127292</v>
       </c>
       <c r="E19" t="n">
-        <v>205.2125349385367</v>
+        <v>371.5258889956115</v>
       </c>
       <c r="F19" t="n">
-        <v>40.58140904912793</v>
+        <v>206.8947631062028</v>
       </c>
       <c r="G19" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="H19" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I19" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="J19" t="n">
         <v>119.5941300923591</v>
       </c>
       <c r="K19" t="n">
-        <v>370.8271110852757</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L19" t="n">
-        <v>767.2637545012743</v>
+        <v>777.2833189924453</v>
       </c>
       <c r="M19" t="n">
-        <v>1200.489614922016</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N19" t="n">
-        <v>1621.867111368317</v>
+        <v>1495.593151162479</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.163211553143</v>
+        <v>1569.889251347305</v>
       </c>
       <c r="P19" t="n">
-        <v>2012.913745472837</v>
+        <v>1886.639785266999</v>
       </c>
       <c r="Q19" t="n">
         <v>2029.070452456396</v>
@@ -5703,22 +5703,22 @@
         <v>2029.070452456396</v>
       </c>
       <c r="T19" t="n">
-        <v>1793.52541705282</v>
+        <v>1904.527316784941</v>
       </c>
       <c r="U19" t="n">
-        <v>1510.778380708983</v>
+        <v>1621.780280441104</v>
       </c>
       <c r="V19" t="n">
-        <v>1236.892635648505</v>
+        <v>1621.780280441104</v>
       </c>
       <c r="W19" t="n">
-        <v>957.8229711573795</v>
+        <v>1342.710615949978</v>
       </c>
       <c r="X19" t="n">
-        <v>719.4791090170629</v>
+        <v>1104.366753809662</v>
       </c>
       <c r="Y19" t="n">
-        <v>719.4791090170629</v>
+        <v>879.6310551984263</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>825.5171750057243</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="C20" t="n">
-        <v>825.5171750057243</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="D20" t="n">
-        <v>825.5171750057243</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="E20" t="n">
-        <v>825.5171750057243</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="F20" t="n">
-        <v>447.2207298649195</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="G20" t="n">
-        <v>40.58140904912793</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="H20" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I20" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="J20" t="n">
-        <v>459.288728209138</v>
+        <v>141.7609686323858</v>
       </c>
       <c r="K20" t="n">
-        <v>631.4797598189763</v>
+        <v>313.9520002422241</v>
       </c>
       <c r="L20" t="n">
-        <v>860.0431742560035</v>
+        <v>542.5154146792513</v>
       </c>
       <c r="M20" t="n">
-        <v>1127.190134437218</v>
+        <v>809.6623748604655</v>
       </c>
       <c r="N20" t="n">
-        <v>1400.528404121139</v>
+        <v>1083.000644544387</v>
       </c>
       <c r="O20" t="n">
-        <v>1653.233200417666</v>
+        <v>1335.705440840914</v>
       </c>
       <c r="P20" t="n">
-        <v>1854.937992176782</v>
+        <v>1537.41023260003</v>
       </c>
       <c r="Q20" t="n">
         <v>1986.899928214061</v>
@@ -5779,25 +5779,25 @@
         <v>2029.070452456396</v>
       </c>
       <c r="S20" t="n">
-        <v>2029.070452456396</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="T20" t="n">
-        <v>1816.008405211255</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="U20" t="n">
-        <v>1559.115030534075</v>
+        <v>1684.498253575554</v>
       </c>
       <c r="V20" t="n">
-        <v>1209.277475870556</v>
+        <v>1334.660698912034</v>
       </c>
       <c r="W20" t="n">
-        <v>825.5171750057243</v>
+        <v>950.900398047203</v>
       </c>
       <c r="X20" t="n">
-        <v>825.5171750057243</v>
+        <v>550.2570002161556</v>
       </c>
       <c r="Y20" t="n">
-        <v>825.5171750057243</v>
+        <v>330.0963111136028</v>
       </c>
     </row>
     <row r="21">
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>686.7513956548314</v>
+        <v>686.7513956548318</v>
       </c>
       <c r="C21" t="n">
-        <v>552.7563244037772</v>
+        <v>552.7563244037774</v>
       </c>
       <c r="D21" t="n">
-        <v>435.8591666231696</v>
+        <v>435.8591666231698</v>
       </c>
       <c r="E21" t="n">
-        <v>315.3663506154976</v>
+        <v>315.3663506154978</v>
       </c>
       <c r="F21" t="n">
-        <v>206.4064707980022</v>
+        <v>206.4064707980024</v>
       </c>
       <c r="G21" t="n">
-        <v>100.5340520092315</v>
+        <v>100.5340520092317</v>
       </c>
       <c r="H21" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I21" t="n">
-        <v>40.58140904912793</v>
+        <v>57.96192752593297</v>
       </c>
       <c r="J21" t="n">
-        <v>93.22203356995941</v>
+        <v>354.2709560213978</v>
       </c>
       <c r="K21" t="n">
-        <v>595.4169705529174</v>
+        <v>535.7403873930888</v>
       </c>
       <c r="L21" t="n">
-        <v>777.7159638305934</v>
+        <v>718.0393806707648</v>
       </c>
       <c r="M21" t="n">
-        <v>998.289822107392</v>
+        <v>938.6132389475632</v>
       </c>
       <c r="N21" t="n">
-        <v>1230.537115265655</v>
+        <v>1170.860532105827</v>
       </c>
       <c r="O21" t="n">
-        <v>1433.998998258353</v>
+        <v>1374.322415098524</v>
       </c>
       <c r="P21" t="n">
-        <v>1589.465205047925</v>
+        <v>1529.788621888096</v>
       </c>
       <c r="Q21" t="n">
-        <v>2019.466546431378</v>
+        <v>2019.466546431377</v>
       </c>
       <c r="R21" t="n">
         <v>2029.070452456396</v>
       </c>
       <c r="S21" t="n">
-        <v>1941.841116488827</v>
+        <v>1941.841116488826</v>
       </c>
       <c r="T21" t="n">
         <v>1787.004343426898</v>
@@ -5870,13 +5870,13 @@
         <v>1376.015538051367</v>
       </c>
       <c r="W21" t="n">
-        <v>1162.782369787695</v>
+        <v>1162.782369787696</v>
       </c>
       <c r="X21" t="n">
-        <v>986.456387926588</v>
+        <v>986.4563879265884</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.0544282904181</v>
+        <v>827.0544282904184</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1066.352150148977</v>
+        <v>1092.467852728356</v>
       </c>
       <c r="C22" t="n">
         <v>921.3744802900726</v>
@@ -5907,55 +5907,55 @@
         <v>128.7481962766324</v>
       </c>
       <c r="I22" t="n">
-        <v>40.58140904912793</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="J22" t="n">
-        <v>54.59276646102274</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K22" t="n">
-        <v>315.8453119451103</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L22" t="n">
-        <v>712.2819553611089</v>
+        <v>777.2833189924453</v>
       </c>
       <c r="M22" t="n">
-        <v>1145.50781578185</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N22" t="n">
-        <v>1566.885312228152</v>
+        <v>1495.593151162479</v>
       </c>
       <c r="O22" t="n">
-        <v>1956.256171831718</v>
+        <v>1569.889251347305</v>
       </c>
       <c r="P22" t="n">
-        <v>2012.913745472837</v>
+        <v>1886.639785266999</v>
       </c>
       <c r="Q22" t="n">
         <v>2029.070452456396</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.930325840613</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.868557377984</v>
+        <v>1859.008683993767</v>
       </c>
       <c r="T22" t="n">
-        <v>1815.868557377984</v>
+        <v>1623.463648590191</v>
       </c>
       <c r="U22" t="n">
-        <v>1533.121521034147</v>
+        <v>1623.463648590191</v>
       </c>
       <c r="V22" t="n">
-        <v>1533.121521034147</v>
+        <v>1623.463648590191</v>
       </c>
       <c r="W22" t="n">
-        <v>1254.051856543021</v>
+        <v>1344.393984099065</v>
       </c>
       <c r="X22" t="n">
-        <v>1254.051856543021</v>
+        <v>1106.050121958749</v>
       </c>
       <c r="Y22" t="n">
-        <v>1254.051856543021</v>
+        <v>1106.050121958749</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1521.794908416688</v>
+        <v>1756.05247867881</v>
       </c>
       <c r="C23" t="n">
-        <v>1521.794908416688</v>
+        <v>1756.05247867881</v>
       </c>
       <c r="D23" t="n">
-        <v>1117.330978509748</v>
+        <v>1351.58854877187</v>
       </c>
       <c r="E23" t="n">
-        <v>702.9907630266448</v>
+        <v>937.2483332887671</v>
       </c>
       <c r="F23" t="n">
-        <v>339.3079087486181</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="G23" t="n">
-        <v>339.3079087486181</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H23" t="n">
-        <v>49.79300668414322</v>
+        <v>55.61001207628649</v>
       </c>
       <c r="I23" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J23" t="n">
-        <v>150.972566267401</v>
+        <v>382.5784697333089</v>
       </c>
       <c r="K23" t="n">
-        <v>323.1635978772394</v>
+        <v>554.7695013431472</v>
       </c>
       <c r="L23" t="n">
-        <v>551.7270123142666</v>
+        <v>783.3329157801744</v>
       </c>
       <c r="M23" t="n">
-        <v>818.8739724954809</v>
+        <v>1050.479875961389</v>
       </c>
       <c r="N23" t="n">
-        <v>1092.212242179402</v>
+        <v>1323.81814564531</v>
       </c>
       <c r="O23" t="n">
-        <v>1344.917038475929</v>
+        <v>1576.522941941837</v>
       </c>
       <c r="P23" t="n">
-        <v>1905.223400777094</v>
+        <v>1778.227733700953</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.479809964826</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R23" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S23" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="T23" t="n">
-        <v>2188.909462758357</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="U23" t="n">
-        <v>1932.016088081177</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="V23" t="n">
-        <v>1932.016088081177</v>
+        <v>2139.812779543641</v>
       </c>
       <c r="W23" t="n">
-        <v>1932.016088081177</v>
+        <v>1756.05247867881</v>
       </c>
       <c r="X23" t="n">
-        <v>1932.016088081177</v>
+        <v>1756.05247867881</v>
       </c>
       <c r="Y23" t="n">
-        <v>1932.016088081177</v>
+        <v>1756.05247867881</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>49.79300668414322</v>
       </c>
       <c r="I24" t="n">
-        <v>49.79300668414322</v>
+        <v>67.17352516094827</v>
       </c>
       <c r="J24" t="n">
-        <v>102.4336312049747</v>
+        <v>363.482553656413</v>
       </c>
       <c r="K24" t="n">
-        <v>224.0575469999838</v>
+        <v>862.9524255548962</v>
       </c>
       <c r="L24" t="n">
-        <v>406.3565402776597</v>
+        <v>1045.251418832572</v>
       </c>
       <c r="M24" t="n">
-        <v>969.8538290283431</v>
+        <v>1265.825277109371</v>
       </c>
       <c r="N24" t="n">
-        <v>1586.042286744615</v>
+        <v>1498.072570267634</v>
       </c>
       <c r="O24" t="n">
-        <v>1789.504169737313</v>
+        <v>1701.534453260332</v>
       </c>
       <c r="P24" t="n">
-        <v>1944.970376526885</v>
+        <v>1857.000660049904</v>
       </c>
       <c r="Q24" t="n">
-        <v>2028.678144066392</v>
+        <v>1940.708427589411</v>
       </c>
       <c r="R24" t="n">
         <v>2038.282050091411</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>769.6752627934075</v>
+        <v>554.4216906841349</v>
       </c>
       <c r="C25" t="n">
-        <v>769.6752627934075</v>
+        <v>383.3283182458514</v>
       </c>
       <c r="D25" t="n">
-        <v>610.1806181163174</v>
+        <v>383.3283182458514</v>
       </c>
       <c r="E25" t="n">
-        <v>610.1806181163174</v>
+        <v>380.7374866306268</v>
       </c>
       <c r="F25" t="n">
-        <v>445.5494922269087</v>
+        <v>216.1063607412181</v>
       </c>
       <c r="G25" t="n">
-        <v>279.2361381698338</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9597939116477</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="I25" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J25" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273742</v>
       </c>
       <c r="K25" t="n">
-        <v>390.0582732114622</v>
+        <v>390.0582732114619</v>
       </c>
       <c r="L25" t="n">
-        <v>786.4949166274608</v>
+        <v>786.4949166274606</v>
       </c>
       <c r="M25" t="n">
         <v>1219.720777048202</v>
@@ -6171,28 +6171,28 @@
         <v>2489.650334207161</v>
       </c>
       <c r="R25" t="n">
-        <v>2474.064073306605</v>
+        <v>2446.510207591377</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.002304843976</v>
+        <v>2276.448439128748</v>
       </c>
       <c r="T25" t="n">
-        <v>2068.4572694404</v>
+        <v>2040.903403725172</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.710233096563</v>
+        <v>1758.156367381335</v>
       </c>
       <c r="V25" t="n">
-        <v>1511.824488036085</v>
+        <v>1484.270622320857</v>
       </c>
       <c r="W25" t="n">
-        <v>1232.754823544959</v>
+        <v>1205.200957829731</v>
       </c>
       <c r="X25" t="n">
-        <v>994.4109614046428</v>
+        <v>966.8570956894146</v>
       </c>
       <c r="Y25" t="n">
-        <v>769.6752627934075</v>
+        <v>742.1213970781793</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>644.1537545136068</v>
+        <v>1216.63113825571</v>
       </c>
       <c r="C26" t="n">
-        <v>644.1537545136068</v>
+        <v>1216.63113825571</v>
       </c>
       <c r="D26" t="n">
-        <v>644.1537545136068</v>
+        <v>1216.63113825571</v>
       </c>
       <c r="E26" t="n">
-        <v>644.1537545136068</v>
+        <v>877.4627395462472</v>
       </c>
       <c r="F26" t="n">
-        <v>339.3079087486181</v>
+        <v>456.4323274999348</v>
       </c>
       <c r="G26" t="n">
-        <v>339.3079087486181</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="H26" t="n">
         <v>49.79300668414322</v>
@@ -6226,28 +6226,28 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J26" t="n">
-        <v>150.972566267401</v>
+        <v>477.7483931551302</v>
       </c>
       <c r="K26" t="n">
-        <v>323.1635978772394</v>
+        <v>649.9394247649685</v>
       </c>
       <c r="L26" t="n">
-        <v>551.7270123142666</v>
+        <v>878.5028392019957</v>
       </c>
       <c r="M26" t="n">
-        <v>818.8739724954809</v>
+        <v>1145.64979938321</v>
       </c>
       <c r="N26" t="n">
-        <v>1092.212242179402</v>
+        <v>1418.988069067132</v>
       </c>
       <c r="O26" t="n">
-        <v>1344.917038475929</v>
+        <v>1671.692865363658</v>
       </c>
       <c r="P26" t="n">
-        <v>1905.223400777094</v>
+        <v>1873.397657122774</v>
       </c>
       <c r="Q26" t="n">
-        <v>2447.479809964826</v>
+        <v>2415.654066310506</v>
       </c>
       <c r="R26" t="n">
         <v>2489.650334207161</v>
@@ -6256,22 +6256,22 @@
         <v>2401.971510003498</v>
       </c>
       <c r="T26" t="n">
-        <v>2188.909462758357</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="U26" t="n">
-        <v>2188.909462758357</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="V26" t="n">
-        <v>1839.071908094837</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="W26" t="n">
-        <v>1455.311607230006</v>
+        <v>2018.211209138667</v>
       </c>
       <c r="X26" t="n">
-        <v>1455.311607230006</v>
+        <v>1617.567811307619</v>
       </c>
       <c r="Y26" t="n">
-        <v>1054.374934178096</v>
+        <v>1216.63113825571</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J27" t="n">
-        <v>102.4336312049747</v>
+        <v>346.102035179608</v>
       </c>
       <c r="K27" t="n">
-        <v>544.9519850281036</v>
+        <v>467.725950974617</v>
       </c>
       <c r="L27" t="n">
-        <v>727.2509783057797</v>
+        <v>650.024944252293</v>
       </c>
       <c r="M27" t="n">
-        <v>947.8248365825781</v>
+        <v>870.5988025290915</v>
       </c>
       <c r="N27" t="n">
-        <v>1180.072129740842</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O27" t="n">
-        <v>1383.534012733539</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P27" t="n">
-        <v>1539.000219523111</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q27" t="n">
-        <v>2028.678144066392</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R27" t="n">
         <v>2038.282050091411</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1101.679450363371</v>
+        <v>822.2975159111538</v>
       </c>
       <c r="C28" t="n">
-        <v>930.5860779250879</v>
+        <v>651.2041434728703</v>
       </c>
       <c r="D28" t="n">
-        <v>771.0914332479979</v>
+        <v>491.7094987957803</v>
       </c>
       <c r="E28" t="n">
-        <v>610.1806181163174</v>
+        <v>491.7094987957803</v>
       </c>
       <c r="F28" t="n">
-        <v>445.5494922269087</v>
+        <v>327.0783729063716</v>
       </c>
       <c r="G28" t="n">
         <v>279.2361381698338</v>
@@ -6384,19 +6384,19 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J28" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273745</v>
       </c>
       <c r="K28" t="n">
-        <v>390.0582732114619</v>
+        <v>390.058273211462</v>
       </c>
       <c r="L28" t="n">
-        <v>786.4949166274605</v>
+        <v>786.4949166274606</v>
       </c>
       <c r="M28" t="n">
         <v>1219.720777048202</v>
       </c>
       <c r="N28" t="n">
-        <v>1641.098273494503</v>
+        <v>1641.098273494504</v>
       </c>
       <c r="O28" t="n">
         <v>2030.46913309807</v>
@@ -6420,16 +6420,16 @@
         <v>1801.296493997118</v>
       </c>
       <c r="V28" t="n">
-        <v>1793.184519859777</v>
+        <v>1527.41074893664</v>
       </c>
       <c r="W28" t="n">
-        <v>1514.114855368651</v>
+        <v>1248.341084445515</v>
       </c>
       <c r="X28" t="n">
-        <v>1514.114855368651</v>
+        <v>1009.997222305198</v>
       </c>
       <c r="Y28" t="n">
-        <v>1289.379156757416</v>
+        <v>1009.997222305198</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1240.976102623579</v>
+        <v>1166.104450439656</v>
       </c>
       <c r="C29" t="n">
-        <v>830.8515119368495</v>
+        <v>1166.104450439656</v>
       </c>
       <c r="D29" t="n">
-        <v>469.9502275593898</v>
+        <v>1166.104450439656</v>
       </c>
       <c r="E29" t="n">
-        <v>55.61001207628649</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="F29" t="n">
-        <v>55.61001207628649</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="G29" t="n">
-        <v>55.61001207628649</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H29" t="n">
         <v>55.61001207628649</v>
@@ -6463,52 +6463,52 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J29" t="n">
-        <v>150.972566267401</v>
+        <v>477.7483931551302</v>
       </c>
       <c r="K29" t="n">
-        <v>323.1635978772394</v>
+        <v>649.9394247649685</v>
       </c>
       <c r="L29" t="n">
-        <v>551.7270123142666</v>
+        <v>878.5028392019957</v>
       </c>
       <c r="M29" t="n">
-        <v>818.8739724954809</v>
+        <v>1145.64979938321</v>
       </c>
       <c r="N29" t="n">
-        <v>1435.062430211753</v>
+        <v>1418.988069067132</v>
       </c>
       <c r="O29" t="n">
-        <v>1699.329416211274</v>
+        <v>1671.692865363658</v>
       </c>
       <c r="P29" t="n">
-        <v>2315.517873927546</v>
+        <v>1873.397657122774</v>
       </c>
       <c r="Q29" t="n">
-        <v>2447.479809964826</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R29" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S29" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="T29" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="U29" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="V29" t="n">
-        <v>2052.133955339979</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="W29" t="n">
-        <v>2052.133955339979</v>
+        <v>2377.905700987103</v>
       </c>
       <c r="X29" t="n">
-        <v>2052.133955339979</v>
+        <v>1977.262303156056</v>
       </c>
       <c r="Y29" t="n">
-        <v>1651.197282288069</v>
+        <v>1576.325630104146</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>346.102035179608</v>
       </c>
       <c r="K30" t="n">
-        <v>467.725950974617</v>
+        <v>544.9519850281036</v>
       </c>
       <c r="L30" t="n">
-        <v>1083.914408690889</v>
+        <v>727.2509783057797</v>
       </c>
       <c r="M30" t="n">
-        <v>1304.488266967688</v>
+        <v>947.8248365825781</v>
       </c>
       <c r="N30" t="n">
-        <v>1536.735560125951</v>
+        <v>1180.072129740842</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.197443118649</v>
+        <v>1383.534012733539</v>
       </c>
       <c r="P30" t="n">
-        <v>1944.970376526885</v>
+        <v>1539.000219523111</v>
       </c>
       <c r="Q30" t="n">
         <v>2028.678144066392</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.4216906841349</v>
+        <v>771.0914332479979</v>
       </c>
       <c r="C31" t="n">
-        <v>383.3283182458514</v>
+        <v>771.0914332479979</v>
       </c>
       <c r="D31" t="n">
-        <v>351.9801660740098</v>
+        <v>771.0914332479979</v>
       </c>
       <c r="E31" t="n">
-        <v>191.0693509423294</v>
+        <v>610.1806181163174</v>
       </c>
       <c r="F31" t="n">
-        <v>191.0693509423294</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="G31" t="n">
-        <v>191.0693509423294</v>
+        <v>279.2361381698338</v>
       </c>
       <c r="H31" t="n">
-        <v>49.79300668414322</v>
+        <v>137.9597939116477</v>
       </c>
       <c r="I31" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J31" t="n">
-        <v>128.8057277273745</v>
+        <v>128.8057277273742</v>
       </c>
       <c r="K31" t="n">
-        <v>390.058273211462</v>
+        <v>390.0582732114619</v>
       </c>
       <c r="L31" t="n">
         <v>786.4949166274606</v>
@@ -6651,22 +6651,22 @@
         <v>2276.448439128748</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.903403725172</v>
+        <v>2257.573146289035</v>
       </c>
       <c r="U31" t="n">
-        <v>1758.156367381335</v>
+        <v>1974.826109945198</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.270622320857</v>
+        <v>1700.94036488472</v>
       </c>
       <c r="W31" t="n">
-        <v>1205.200957829731</v>
+        <v>1421.870700393594</v>
       </c>
       <c r="X31" t="n">
-        <v>966.8570956894146</v>
+        <v>1183.526838253278</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.1213970781793</v>
+        <v>958.7911396420423</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1287.587330232977</v>
+        <v>1531.079415029267</v>
       </c>
       <c r="C32" t="n">
-        <v>877.4627395462472</v>
+        <v>1531.079415029267</v>
       </c>
       <c r="D32" t="n">
-        <v>877.4627395462472</v>
+        <v>1531.079415029267</v>
       </c>
       <c r="E32" t="n">
-        <v>877.4627395462472</v>
+        <v>1166.977641610722</v>
       </c>
       <c r="F32" t="n">
-        <v>456.4323274999348</v>
+        <v>745.9472295644097</v>
       </c>
       <c r="G32" t="n">
-        <v>49.79300668414322</v>
+        <v>339.3079087486181</v>
       </c>
       <c r="H32" t="n">
         <v>49.79300668414322</v>
@@ -6700,52 +6700,52 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J32" t="n">
-        <v>150.972566267401</v>
+        <v>477.7483931551302</v>
       </c>
       <c r="K32" t="n">
-        <v>323.1635978772394</v>
+        <v>649.9394247649685</v>
       </c>
       <c r="L32" t="n">
-        <v>910.3285828563156</v>
+        <v>878.5028392019957</v>
       </c>
       <c r="M32" t="n">
-        <v>1177.47554303753</v>
+        <v>1145.64979938321</v>
       </c>
       <c r="N32" t="n">
-        <v>1450.813812721452</v>
+        <v>1418.988069067132</v>
       </c>
       <c r="O32" t="n">
-        <v>1703.518609017978</v>
+        <v>1671.692865363658</v>
       </c>
       <c r="P32" t="n">
-        <v>1905.223400777094</v>
+        <v>1873.397657122774</v>
       </c>
       <c r="Q32" t="n">
-        <v>2447.479809964826</v>
+        <v>2415.654066310506</v>
       </c>
       <c r="R32" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S32" t="n">
-        <v>2489.650334207161</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="T32" t="n">
-        <v>2489.650334207161</v>
+        <v>2188.909462758357</v>
       </c>
       <c r="U32" t="n">
-        <v>2489.650334207161</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="V32" t="n">
-        <v>2489.650334207161</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="W32" t="n">
-        <v>2105.890033342329</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="X32" t="n">
-        <v>2098.745182949377</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="Y32" t="n">
-        <v>1697.808509897467</v>
+        <v>1531.079415029267</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4336312049747</v>
+        <v>346.102035179608</v>
       </c>
       <c r="K33" t="n">
-        <v>224.0575469999838</v>
+        <v>467.725950974617</v>
       </c>
       <c r="L33" t="n">
-        <v>406.3565402776597</v>
+        <v>650.024944252293</v>
       </c>
       <c r="M33" t="n">
-        <v>626.9303985544582</v>
+        <v>870.5988025290915</v>
       </c>
       <c r="N33" t="n">
-        <v>859.1776917127216</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O33" t="n">
-        <v>1062.639574705419</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P33" t="n">
-        <v>1539.000219523111</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2028.678144066392</v>
+        <v>1940.708427589411</v>
       </c>
       <c r="R33" t="n">
         <v>2038.282050091411</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>942.1848056862814</v>
+        <v>822.2975159111538</v>
       </c>
       <c r="C34" t="n">
-        <v>771.0914332479979</v>
+        <v>651.2041434728703</v>
       </c>
       <c r="D34" t="n">
-        <v>771.0914332479979</v>
+        <v>651.2041434728703</v>
       </c>
       <c r="E34" t="n">
         <v>610.1806181163174</v>
@@ -6858,13 +6858,13 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J34" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273745</v>
       </c>
       <c r="K34" t="n">
-        <v>390.0582732114619</v>
+        <v>390.058273211462</v>
       </c>
       <c r="L34" t="n">
-        <v>786.4949166274605</v>
+        <v>786.4949166274606</v>
       </c>
       <c r="M34" t="n">
         <v>1219.720777048202</v>
@@ -6891,19 +6891,19 @@
         <v>2084.043530340955</v>
       </c>
       <c r="U34" t="n">
-        <v>2084.043530340955</v>
+        <v>1801.296493997118</v>
       </c>
       <c r="V34" t="n">
-        <v>1810.157785280477</v>
+        <v>1527.41074893664</v>
       </c>
       <c r="W34" t="n">
-        <v>1531.088120789352</v>
+        <v>1248.341084445515</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.620210691561</v>
+        <v>1009.997222305198</v>
       </c>
       <c r="Y34" t="n">
-        <v>1129.884512080326</v>
+        <v>1009.997222305198</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1618.849272791906</v>
+        <v>1286.076627265274</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.724682105176</v>
+        <v>875.9520365785436</v>
       </c>
       <c r="D35" t="n">
         <v>875.9520365785436</v>
@@ -6967,22 +6967,22 @@
         <v>2029.070452456395</v>
       </c>
       <c r="T35" t="n">
-        <v>2029.070452456395</v>
+        <v>1892.807556605973</v>
       </c>
       <c r="U35" t="n">
-        <v>2029.070452456395</v>
+        <v>1635.914181928793</v>
       </c>
       <c r="V35" t="n">
-        <v>2029.070452456395</v>
+        <v>1286.076627265274</v>
       </c>
       <c r="W35" t="n">
-        <v>2029.070452456395</v>
+        <v>1286.076627265274</v>
       </c>
       <c r="X35" t="n">
-        <v>2029.070452456395</v>
+        <v>1286.076627265274</v>
       </c>
       <c r="Y35" t="n">
-        <v>2029.070452456395</v>
+        <v>1286.076627265274</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>686.7513956548314</v>
       </c>
       <c r="C36" t="n">
-        <v>552.7563244037772</v>
+        <v>552.7563244037771</v>
       </c>
       <c r="D36" t="n">
         <v>435.8591666231696</v>
@@ -7004,7 +7004,7 @@
         <v>315.3663506154976</v>
       </c>
       <c r="F36" t="n">
-        <v>206.4064707980022</v>
+        <v>206.4064707980021</v>
       </c>
       <c r="G36" t="n">
         <v>100.5340520092315</v>
@@ -7019,25 +7019,25 @@
         <v>336.8904375445927</v>
       </c>
       <c r="K36" t="n">
-        <v>507.0120977264952</v>
+        <v>458.5143533396017</v>
       </c>
       <c r="L36" t="n">
-        <v>689.3110910041712</v>
+        <v>640.8133466172777</v>
       </c>
       <c r="M36" t="n">
-        <v>909.8849492809696</v>
+        <v>861.3872048940761</v>
       </c>
       <c r="N36" t="n">
-        <v>1142.132242439233</v>
+        <v>1093.634498052339</v>
       </c>
       <c r="O36" t="n">
-        <v>1345.594125431931</v>
+        <v>1297.096381045037</v>
       </c>
       <c r="P36" t="n">
-        <v>1847.789062414889</v>
+        <v>1452.562587834609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1931.496829954396</v>
+        <v>1942.24051237789</v>
       </c>
       <c r="R36" t="n">
         <v>2029.070452456395</v>
@@ -7058,7 +7058,7 @@
         <v>1162.782369787695</v>
       </c>
       <c r="X36" t="n">
-        <v>986.4563879265881</v>
+        <v>986.4563879265879</v>
       </c>
       <c r="Y36" t="n">
         <v>827.0544282904181</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>744.6210760789661</v>
+        <v>696.7113671855907</v>
       </c>
       <c r="C37" t="n">
-        <v>597.2487097235739</v>
+        <v>525.6179947473072</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2487097235739</v>
+        <v>366.1233500702172</v>
       </c>
       <c r="E37" t="n">
-        <v>436.3378945918934</v>
+        <v>205.2125349385366</v>
       </c>
       <c r="F37" t="n">
-        <v>436.3378945918934</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="G37" t="n">
-        <v>270.0245405348185</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="H37" t="n">
-        <v>128.7481962766324</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I37" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J37" t="n">
-        <v>54.59276646102272</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K37" t="n">
-        <v>109.5651183593961</v>
+        <v>190.3758749338148</v>
       </c>
       <c r="L37" t="n">
-        <v>506.0017617753948</v>
+        <v>586.8125183498134</v>
       </c>
       <c r="M37" t="n">
-        <v>939.2276221961363</v>
+        <v>1020.038378770555</v>
       </c>
       <c r="N37" t="n">
-        <v>1180.518391743738</v>
+        <v>1441.415875216856</v>
       </c>
       <c r="O37" t="n">
-        <v>1569.889251347305</v>
+        <v>1830.786734820423</v>
       </c>
       <c r="P37" t="n">
         <v>1886.639785266999</v>
@@ -7119,28 +7119,28 @@
         <v>2029.070452456395</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.868557377983</v>
+        <v>1859.008683993766</v>
       </c>
       <c r="T37" t="n">
-        <v>1580.323521974407</v>
+        <v>1623.46364859019</v>
       </c>
       <c r="U37" t="n">
-        <v>1297.57648563057</v>
+        <v>1623.46364859019</v>
       </c>
       <c r="V37" t="n">
-        <v>1023.690740570092</v>
+        <v>1349.577903529712</v>
       </c>
       <c r="W37" t="n">
-        <v>744.6210760789661</v>
+        <v>1347.490634331187</v>
       </c>
       <c r="X37" t="n">
-        <v>744.6210760789661</v>
+        <v>1109.14677219087</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6210760789661</v>
+        <v>884.4110735796351</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1269.510145125901</v>
+        <v>1976.57018936575</v>
       </c>
       <c r="C38" t="n">
-        <v>859.3855544391706</v>
+        <v>1976.57018936575</v>
       </c>
       <c r="D38" t="n">
-        <v>454.9216245322312</v>
+        <v>1572.10625945881</v>
       </c>
       <c r="E38" t="n">
-        <v>40.58140904912791</v>
+        <v>1157.766043975707</v>
       </c>
       <c r="F38" t="n">
-        <v>40.58140904912791</v>
+        <v>736.7356319293943</v>
       </c>
       <c r="G38" t="n">
-        <v>40.58140904912791</v>
+        <v>330.0963111136028</v>
       </c>
       <c r="H38" t="n">
         <v>40.58140904912791</v>
@@ -7180,46 +7180,46 @@
         <v>313.9520002422241</v>
       </c>
       <c r="L38" t="n">
-        <v>733.0475071798613</v>
+        <v>542.5154146792513</v>
       </c>
       <c r="M38" t="n">
-        <v>1000.194467361076</v>
+        <v>1044.710351662209</v>
       </c>
       <c r="N38" t="n">
-        <v>1273.532737044997</v>
+        <v>1318.048621346131</v>
       </c>
       <c r="O38" t="n">
-        <v>1526.237533341524</v>
+        <v>1653.233200417665</v>
       </c>
       <c r="P38" t="n">
-        <v>1727.94232510064</v>
+        <v>1854.937992176781</v>
       </c>
       <c r="Q38" t="n">
-        <v>1859.904261137919</v>
+        <v>1986.89992821406</v>
       </c>
       <c r="R38" t="n">
         <v>2029.070452456395</v>
       </c>
       <c r="S38" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="T38" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="U38" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="V38" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="W38" t="n">
-        <v>1670.446818177811</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="X38" t="n">
-        <v>1670.446818177811</v>
+        <v>1976.57018936575</v>
       </c>
       <c r="Y38" t="n">
-        <v>1269.510145125901</v>
+        <v>1976.57018936575</v>
       </c>
     </row>
     <row r="39">
@@ -7265,16 +7265,16 @@
         <v>861.3872048940761</v>
       </c>
       <c r="N39" t="n">
-        <v>1142.132242439233</v>
+        <v>1093.634498052339</v>
       </c>
       <c r="O39" t="n">
-        <v>1345.594125431931</v>
+        <v>1297.096381045037</v>
       </c>
       <c r="P39" t="n">
-        <v>1847.789062414889</v>
+        <v>1452.562587834609</v>
       </c>
       <c r="Q39" t="n">
-        <v>1931.496829954396</v>
+        <v>1942.24051237789</v>
       </c>
       <c r="R39" t="n">
         <v>2029.070452456395</v>
@@ -7283,19 +7283,19 @@
         <v>1941.841116488826</v>
       </c>
       <c r="T39" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U39" t="n">
         <v>1589.727065058333</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.015538051366</v>
+        <v>1376.015538051367</v>
       </c>
       <c r="W39" t="n">
         <v>1162.782369787695</v>
       </c>
       <c r="X39" t="n">
-        <v>986.4563879265879</v>
+        <v>986.456387926588</v>
       </c>
       <c r="Y39" t="n">
         <v>827.0544282904181</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>766.9259117072668</v>
+        <v>307.0437040117823</v>
       </c>
       <c r="C40" t="n">
-        <v>595.8325392689833</v>
+        <v>135.9503315734988</v>
       </c>
       <c r="D40" t="n">
-        <v>436.3378945918934</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="E40" t="n">
-        <v>436.3378945918934</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="F40" t="n">
-        <v>436.3378945918934</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="G40" t="n">
-        <v>270.0245405348185</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="H40" t="n">
-        <v>128.7481962766324</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I40" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J40" t="n">
-        <v>54.59276646102272</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K40" t="n">
-        <v>109.5651183593961</v>
+        <v>316.6498351396522</v>
       </c>
       <c r="L40" t="n">
-        <v>452.1889950825328</v>
+        <v>713.0864785556508</v>
       </c>
       <c r="M40" t="n">
-        <v>885.4148555032742</v>
+        <v>1146.312338976392</v>
       </c>
       <c r="N40" t="n">
-        <v>1306.792351949576</v>
+        <v>1567.689835422694</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.163211553142</v>
+        <v>1957.06069502626</v>
       </c>
       <c r="P40" t="n">
         <v>2012.913745472836</v>
@@ -7356,28 +7356,28 @@
         <v>2029.070452456395</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="T40" t="n">
-        <v>1985.930325840612</v>
+        <v>1793.525417052819</v>
       </c>
       <c r="U40" t="n">
-        <v>1970.660588404467</v>
+        <v>1510.778380708982</v>
       </c>
       <c r="V40" t="n">
-        <v>1696.774843343989</v>
+        <v>1236.892635648504</v>
       </c>
       <c r="W40" t="n">
-        <v>1417.705178852863</v>
+        <v>957.8229711573786</v>
       </c>
       <c r="X40" t="n">
-        <v>1179.361316712546</v>
+        <v>719.479109017062</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.6256181013111</v>
+        <v>494.7434104058267</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>920.6588358250558</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="C41" t="n">
-        <v>920.6588358250558</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="D41" t="n">
-        <v>516.1949059181163</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="E41" t="n">
-        <v>440.7405715062102</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="F41" t="n">
-        <v>440.7405715062102</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="G41" t="n">
-        <v>34.10125069041869</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="H41" t="n">
         <v>34.10125069041869</v>
@@ -7417,7 +7417,7 @@
         <v>307.4718418835149</v>
       </c>
       <c r="L41" t="n">
-        <v>536.0352563205419</v>
+        <v>536.035256320542</v>
       </c>
       <c r="M41" t="n">
         <v>803.1822165017561</v>
@@ -7432,31 +7432,31 @@
         <v>1530.93007424132</v>
       </c>
       <c r="Q41" t="n">
-        <v>1662.8920102786</v>
+        <v>1662.892010278599</v>
       </c>
       <c r="R41" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S41" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="T41" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="U41" t="n">
-        <v>1705.062534520935</v>
+        <v>1448.169159843755</v>
       </c>
       <c r="V41" t="n">
-        <v>1705.062534520935</v>
+        <v>1125.196223637851</v>
       </c>
       <c r="W41" t="n">
-        <v>1321.302233656103</v>
+        <v>1125.196223637851</v>
       </c>
       <c r="X41" t="n">
-        <v>920.6588358250558</v>
+        <v>724.5528258068034</v>
       </c>
       <c r="Y41" t="n">
-        <v>920.6588358250558</v>
+        <v>323.6161527548936</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>559.7784212884503</v>
+        <v>679.3724922160642</v>
       </c>
       <c r="C42" t="n">
-        <v>425.783350037396</v>
+        <v>545.3774209650098</v>
       </c>
       <c r="D42" t="n">
-        <v>308.8861922567884</v>
+        <v>428.4802631844022</v>
       </c>
       <c r="E42" t="n">
-        <v>308.8861922567884</v>
+        <v>307.9874471767303</v>
       </c>
       <c r="F42" t="n">
-        <v>199.9263124392929</v>
+        <v>199.0275673592348</v>
       </c>
       <c r="G42" t="n">
-        <v>94.05389365052226</v>
+        <v>93.15514857046415</v>
       </c>
       <c r="H42" t="n">
         <v>34.10125069041869</v>
@@ -7490,52 +7490,52 @@
         <v>34.10125069041869</v>
       </c>
       <c r="J42" t="n">
-        <v>157.7835009119681</v>
+        <v>330.4102791858834</v>
       </c>
       <c r="K42" t="n">
-        <v>279.4074167069772</v>
+        <v>452.0341949808925</v>
       </c>
       <c r="L42" t="n">
-        <v>461.7064099846531</v>
+        <v>634.3331882585685</v>
       </c>
       <c r="M42" t="n">
-        <v>682.2802682614516</v>
+        <v>854.907046535367</v>
       </c>
       <c r="N42" t="n">
-        <v>914.5275614197151</v>
+        <v>1087.15433969363</v>
       </c>
       <c r="O42" t="n">
-        <v>1117.989444412413</v>
+        <v>1290.616222686328</v>
       </c>
       <c r="P42" t="n">
-        <v>1273.455651201985</v>
+        <v>1446.0824294759</v>
       </c>
       <c r="Q42" t="n">
         <v>1695.458628495916</v>
       </c>
       <c r="R42" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S42" t="n">
         <v>1617.833198553365</v>
       </c>
       <c r="T42" t="n">
-        <v>1462.996425491437</v>
+        <v>1462.996425491436</v>
       </c>
       <c r="U42" t="n">
-        <v>1462.754090691952</v>
+        <v>1265.719147122872</v>
       </c>
       <c r="V42" t="n">
-        <v>1249.042563684985</v>
+        <v>1052.007620115905</v>
       </c>
       <c r="W42" t="n">
-        <v>1035.809395421314</v>
+        <v>838.7744518522342</v>
       </c>
       <c r="X42" t="n">
-        <v>859.4834135602069</v>
+        <v>838.7744518522342</v>
       </c>
       <c r="Y42" t="n">
-        <v>700.081453924037</v>
+        <v>679.3724922160642</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.0117078058003</v>
+        <v>666.8764271956588</v>
       </c>
       <c r="C43" t="n">
-        <v>390.9183353675168</v>
+        <v>495.7830547573753</v>
       </c>
       <c r="D43" t="n">
-        <v>231.4236906904268</v>
+        <v>336.2884100802853</v>
       </c>
       <c r="E43" t="n">
-        <v>70.51287555874626</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="F43" t="n">
-        <v>70.51287555874626</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="G43" t="n">
-        <v>70.51287555874626</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="H43" t="n">
-        <v>70.51287555874626</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I43" t="n">
         <v>34.10125069041869</v>
       </c>
       <c r="J43" t="n">
-        <v>48.11260810231351</v>
+        <v>48.1126081023135</v>
       </c>
       <c r="K43" t="n">
         <v>103.0849600006869</v>
       </c>
       <c r="L43" t="n">
-        <v>185.5424921816625</v>
+        <v>400.301443747</v>
       </c>
       <c r="M43" t="n">
-        <v>607.5454694755938</v>
+        <v>822.3044210409313</v>
       </c>
       <c r="N43" t="n">
-        <v>1028.922965921895</v>
+        <v>1243.681917487233</v>
       </c>
       <c r="O43" t="n">
-        <v>1418.293825525462</v>
+        <v>1633.052777090799</v>
       </c>
       <c r="P43" t="n">
         <v>1688.905827537375</v>
       </c>
       <c r="Q43" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="R43" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S43" t="n">
-        <v>1491.860639442522</v>
+        <v>1683.789942614785</v>
       </c>
       <c r="T43" t="n">
-        <v>1491.860639442522</v>
+        <v>1448.244907211209</v>
       </c>
       <c r="U43" t="n">
-        <v>1491.860639442522</v>
+        <v>1165.497870867372</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.860639442522</v>
+        <v>891.6121258068941</v>
       </c>
       <c r="W43" t="n">
-        <v>1212.790974951396</v>
+        <v>891.6121258068941</v>
       </c>
       <c r="X43" t="n">
-        <v>974.4471128110799</v>
+        <v>891.6121258068941</v>
       </c>
       <c r="Y43" t="n">
-        <v>749.7114141998446</v>
+        <v>666.8764271956588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1271.895574239253</v>
+        <v>1279.596468906564</v>
       </c>
       <c r="C44" t="n">
-        <v>861.7709835525227</v>
+        <v>869.4718782198345</v>
       </c>
       <c r="D44" t="n">
-        <v>861.7709835525227</v>
+        <v>869.4718782198345</v>
       </c>
       <c r="E44" t="n">
-        <v>861.7709835525227</v>
+        <v>455.1316627367311</v>
       </c>
       <c r="F44" t="n">
-        <v>440.7405715062102</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G44" t="n">
         <v>34.10125069041869</v>
@@ -7648,16 +7648,16 @@
         <v>34.10125069041869</v>
       </c>
       <c r="J44" t="n">
-        <v>135.2808102736765</v>
+        <v>135.2808102736766</v>
       </c>
       <c r="K44" t="n">
-        <v>307.4718418835149</v>
+        <v>307.471841883515</v>
       </c>
       <c r="L44" t="n">
-        <v>536.035256320542</v>
+        <v>536.0352563205421</v>
       </c>
       <c r="M44" t="n">
-        <v>803.1822165017561</v>
+        <v>803.1822165017563</v>
       </c>
       <c r="N44" t="n">
         <v>1076.520486185678</v>
@@ -7669,31 +7669,31 @@
         <v>1530.93007424132</v>
       </c>
       <c r="Q44" t="n">
-        <v>1662.8920102786</v>
+        <v>1662.892010278599</v>
       </c>
       <c r="R44" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="S44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
       <c r="T44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
       <c r="U44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
       <c r="V44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
       <c r="W44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
       <c r="X44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
       <c r="Y44" t="n">
-        <v>1617.383710317272</v>
+        <v>1689.817648571054</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>429.3790082644604</v>
+        <v>449.9728136869402</v>
       </c>
       <c r="C45" t="n">
-        <v>429.3790082644604</v>
+        <v>315.9777424358859</v>
       </c>
       <c r="D45" t="n">
-        <v>429.3790082644604</v>
+        <v>199.0805846552783</v>
       </c>
       <c r="E45" t="n">
-        <v>308.8861922567884</v>
+        <v>78.58776864760628</v>
       </c>
       <c r="F45" t="n">
-        <v>199.9263124392929</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G45" t="n">
-        <v>94.05389365052226</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H45" t="n">
         <v>34.10125069041869</v>
@@ -7727,52 +7727,52 @@
         <v>34.10125069041869</v>
       </c>
       <c r="J45" t="n">
-        <v>86.74187521125017</v>
+        <v>86.7418752112502</v>
       </c>
       <c r="K45" t="n">
         <v>208.3657910062593</v>
       </c>
       <c r="L45" t="n">
-        <v>533.4648492347183</v>
+        <v>390.6647842839353</v>
       </c>
       <c r="M45" t="n">
-        <v>754.0387075115167</v>
+        <v>611.2386425607339</v>
       </c>
       <c r="N45" t="n">
-        <v>986.2860006697802</v>
+        <v>843.4859357189973</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.747883662478</v>
+        <v>1046.947818711695</v>
       </c>
       <c r="P45" t="n">
-        <v>1611.750860956409</v>
+        <v>1202.414025501267</v>
       </c>
       <c r="Q45" t="n">
-        <v>1695.458628495916</v>
+        <v>1624.417002795198</v>
       </c>
       <c r="R45" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="S45" t="n">
-        <v>1617.833198553365</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T45" t="n">
-        <v>1462.996425491437</v>
+        <v>1550.225761459006</v>
       </c>
       <c r="U45" t="n">
-        <v>1265.719147122872</v>
+        <v>1352.948483090441</v>
       </c>
       <c r="V45" t="n">
-        <v>1052.007620115906</v>
+        <v>1139.236956083475</v>
       </c>
       <c r="W45" t="n">
-        <v>838.7744518522344</v>
+        <v>926.003787819804</v>
       </c>
       <c r="X45" t="n">
-        <v>662.4484699911272</v>
+        <v>749.6778059586968</v>
       </c>
       <c r="Y45" t="n">
-        <v>569.682040900047</v>
+        <v>590.2758463225268</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>340.0087208380136</v>
+        <v>514.1663787962685</v>
       </c>
       <c r="C46" t="n">
-        <v>340.0087208380136</v>
+        <v>343.073006357985</v>
       </c>
       <c r="D46" t="n">
-        <v>340.0087208380136</v>
+        <v>183.5783616808951</v>
       </c>
       <c r="E46" t="n">
-        <v>340.0087208380136</v>
+        <v>183.5783616808951</v>
       </c>
       <c r="F46" t="n">
-        <v>175.3775949486048</v>
+        <v>183.5783616808951</v>
       </c>
       <c r="G46" t="n">
-        <v>175.3775949486048</v>
+        <v>183.5783616808951</v>
       </c>
       <c r="H46" t="n">
-        <v>34.10125069041869</v>
+        <v>42.30201742270893</v>
       </c>
       <c r="I46" t="n">
         <v>34.10125069041869</v>
       </c>
       <c r="J46" t="n">
-        <v>48.11260810231351</v>
+        <v>48.11260810231352</v>
       </c>
       <c r="K46" t="n">
-        <v>263.8024175183725</v>
+        <v>103.0849600006869</v>
       </c>
       <c r="L46" t="n">
-        <v>660.2390609343711</v>
+        <v>400.3014437470001</v>
       </c>
       <c r="M46" t="n">
-        <v>1082.242038228302</v>
+        <v>822.3044210409314</v>
       </c>
       <c r="N46" t="n">
-        <v>1171.585233227018</v>
+        <v>1243.681917487233</v>
       </c>
       <c r="O46" t="n">
-        <v>1245.881333411844</v>
+        <v>1633.052777090799</v>
       </c>
       <c r="P46" t="n">
-        <v>1562.631867331538</v>
+        <v>1688.905827537375</v>
       </c>
       <c r="Q46" t="n">
         <v>1705.062534520935</v>
@@ -7833,25 +7833,25 @@
         <v>1661.922407905151</v>
       </c>
       <c r="S46" t="n">
-        <v>1661.922407905151</v>
+        <v>1491.860639442522</v>
       </c>
       <c r="T46" t="n">
-        <v>1426.377372501575</v>
+        <v>1256.315604038946</v>
       </c>
       <c r="U46" t="n">
-        <v>1143.630336157738</v>
+        <v>1256.315604038946</v>
       </c>
       <c r="V46" t="n">
-        <v>869.7445910972599</v>
+        <v>1256.315604038946</v>
       </c>
       <c r="W46" t="n">
-        <v>803.0882815895654</v>
+        <v>977.2459395478204</v>
       </c>
       <c r="X46" t="n">
-        <v>564.7444194492489</v>
+        <v>738.9020774075038</v>
       </c>
       <c r="Y46" t="n">
-        <v>340.0087208380136</v>
+        <v>514.1663787962685</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>54.20313861001276</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>341.7123330852768</v>
+        <v>60.92747123911397</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>337.1146125126013</v>
+        <v>337.1146125126014</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>15.86854596613354</v>
       </c>
       <c r="O13" t="n">
-        <v>205.4697086218766</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>103.8646713908354</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.7485801022563</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>149.7857707108116</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>205.4697086218769</v>
       </c>
       <c r="M16" t="n">
-        <v>97.30263701264789</v>
+        <v>337.1146125126013</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>303.525399216002</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.20971146758615</v>
+        <v>320.7351106835878</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>272.6743877017117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.6739744749684</v>
+        <v>381.6625819227014</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9324,7 +9324,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>198.2430596914577</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
@@ -9333,7 +9333,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>197.7179563137138</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>320.735110683588</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>320.7351106835878</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4151729171202</v>
+        <v>60.45001573402217</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>349.791488731258</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>197.7179563137138</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8126496914575796</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>233.9453570362706</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>362.2238086283323</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>381.6625819227011</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>346.3873035089746</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>387.8193581394028</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>362.2238086283323</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>32.14721581244426</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>2.209379164537715</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>324.1357959879999</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533714</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>346.3133212447986</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.67897949797424</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>418.6703696536931</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>318.3076259885164</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>78.00609500352181</v>
       </c>
       <c r="L30" t="n">
-        <v>438.2721863016124</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>49.80477436228708</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>362.2238086283324</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>32.14721581244426</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>2.209379164537715</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>324.1357959879999</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>399.2186611922012</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>48.98762059282168</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>350.2310405993794</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.96908378089121</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,13 +10755,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>153.4823985342284</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10828,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>192.4566590915254</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>237.42219878964</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.31291189394722</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>48.98762059282171</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>350.2310405993794</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>143.5185385342623</v>
       </c>
       <c r="L40" t="n">
-        <v>262.7942874163243</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>2.209379164537715</v>
       </c>
       <c r="J42" t="n">
-        <v>71.75921787951305</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>341.7123330852769</v>
+        <v>167.3418499803117</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>216.9282339043814</v>
       </c>
       <c r="M43" t="n">
-        <v>337.1146125126014</v>
+        <v>337.1146125126013</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11235,7 +11235,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>216.9282339043815</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.209379164537715</v>
+        <v>2.209379164537701</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>144.2424898492758</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>269.2290611155142</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>341.7123330852769</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.75921787951296</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>162.3408661794803</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>216.9282339043813</v>
       </c>
       <c r="M46" t="n">
-        <v>337.1146125126014</v>
+        <v>337.1146125126013</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,13 +23266,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.6197530438301</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.324440930408</v>
@@ -23320,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>331.3776096858076</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>259.2021837792644</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.89852886944738</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>198.6242957781824</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.32526960461841</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S13" t="n">
         <v>168.3611507780025</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>148.6270456794473</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23500,7 +23500,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,10 +23509,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>142.2808135117792</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H14" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>313.0836618803696</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>14.4739638926176</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>175.4524796717538</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,19 +23661,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H16" t="n">
-        <v>139.8635808156043</v>
+        <v>52.5641762935807</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.80197676548073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.758835338221843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T17" t="n">
         <v>210.9314267726901</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>20.08901808842035</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>43.45768421140656</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.2826449169465</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>139.8635808156043</v>
@@ -23943,13 +23943,13 @@
         <v>168.3611507780025</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>109.8918807347999</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,13 +23980,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>42.30662723645253</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H20" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>5.758835338221843</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>178.9682241098635</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>172.3762627920154</v>
       </c>
       <c r="C22" t="n">
-        <v>25.85454555358555</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>56.77408219060288</v>
+        <v>233.1908505769572</v>
       </c>
       <c r="G23" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>156.7367836812914</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.27832705807558</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24451,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>74.42009860590451</v>
       </c>
       <c r="F26" t="n">
-        <v>115.0227206185105</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I26" t="n">
         <v>5.758835338221843</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U26" t="n">
         <v>254.324440930408</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>117.2864081273317</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.1160332139051</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>43.12701907418489</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T29" t="n">
         <v>210.9314267726901</v>
@@ -24739,13 +24739,13 @@
         <v>254.324440930408</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>269.2955109683262</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>126.8650275801959</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>214.5030451382245</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>49.73605764391249</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>5.758835338221843</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>389.5635619637142</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.6884168773763</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>61.25719252210084</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>70.97437153650412</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>86.8020359616258</v>
       </c>
       <c r="T35" t="n">
-        <v>210.9314267726901</v>
+        <v>76.03115988077175</v>
       </c>
       <c r="U35" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>23.48379602206242</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>274.2125713396741</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>5.758835338221843</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T38" t="n">
         <v>210.9314267726901</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>111.68733588201</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>344.6617033929978</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>63.48446493119187</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S40" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T40" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>264.8025259186148</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>335.4970222604852</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H41" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>5.758835338221843</v>
@@ -25684,19 +25684,19 @@
         <v>210.9314267726901</v>
       </c>
       <c r="U41" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>26.59597227303937</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.8897576292575167</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.064594133389</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>164.6502205165041</v>
       </c>
       <c r="H43" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.23761073558513</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>147.301284790915</v>
       </c>
       <c r="T43" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.08571315060522</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H44" t="n">
         <v>286.6197530438301</v>
       </c>
       <c r="I44" t="n">
-        <v>5.758835338221843</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>71.70959887124394</v>
       </c>
       <c r="T44" t="n">
         <v>210.9314267726901</v>
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>63.82862824170475</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.813694600883</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.35311653050251</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>65.96917523963886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>164.6502205165041</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.28511935522941</v>
+        <v>79.16636029026208</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>210.2892214335969</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358025.2213327605</v>
+        <v>358025.2213327604</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421527.5242014396</v>
+        <v>421527.5242014395</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421527.5242014397</v>
+        <v>421527.5242014396</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>485581.444513043</v>
+        <v>485581.4445130428</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>485581.4445130429</v>
+        <v>485581.4445130428</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>485581.4445130428</v>
+        <v>485581.4445130429</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421527.5242014397</v>
+        <v>421527.5242014395</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518407.7583024596</v>
+        <v>518407.7583024597</v>
       </c>
       <c r="C2" t="n">
-        <v>518407.7583024596</v>
+        <v>518407.7583024597</v>
       </c>
       <c r="D2" t="n">
         <v>518407.7583024596</v>
       </c>
       <c r="E2" t="n">
-        <v>284813.6670946574</v>
+        <v>284813.6670946575</v>
       </c>
       <c r="F2" t="n">
         <v>284813.6670946574</v>
@@ -26331,28 +26331,28 @@
         <v>321530.0369900365</v>
       </c>
       <c r="H2" t="n">
-        <v>321530.0369900367</v>
+        <v>321530.0369900365</v>
       </c>
       <c r="I2" t="n">
         <v>358565.3463436747</v>
       </c>
       <c r="J2" t="n">
-        <v>358565.3463436751</v>
+        <v>358565.3463436749</v>
       </c>
       <c r="K2" t="n">
-        <v>358565.3463436749</v>
+        <v>358565.3463436748</v>
       </c>
       <c r="L2" t="n">
-        <v>358565.3463436747</v>
+        <v>358565.3463436748</v>
       </c>
       <c r="M2" t="n">
-        <v>321530.0369900365</v>
+        <v>321530.0369900364</v>
       </c>
       <c r="N2" t="n">
-        <v>321530.0369900365</v>
+        <v>321530.0369900364</v>
       </c>
       <c r="O2" t="n">
-        <v>284813.6670946574</v>
+        <v>284813.6670946573</v>
       </c>
       <c r="P2" t="n">
         <v>284813.6670946574</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>540570.8149886986</v>
+        <v>540570.8149886987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22201.42754683519</v>
+        <v>22201.4275468352</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30619.46568376124</v>
+        <v>30619.46568376129</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77532.51375023431</v>
+        <v>77532.51375023436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>355722.5312813406</v>
       </c>
       <c r="E4" t="n">
+        <v>20178.62854791444</v>
+      </c>
+      <c r="F4" t="n">
         <v>20178.62854791442</v>
       </c>
-      <c r="F4" t="n">
-        <v>20178.62854791443</v>
-      </c>
       <c r="G4" t="n">
-        <v>40150.48315507079</v>
+        <v>40150.48315507076</v>
       </c>
       <c r="H4" t="n">
-        <v>40150.48315507079</v>
+        <v>40150.48315507075</v>
       </c>
       <c r="I4" t="n">
-        <v>60295.82475200818</v>
+        <v>60295.82475200816</v>
       </c>
       <c r="J4" t="n">
         <v>60295.82475200816</v>
       </c>
       <c r="K4" t="n">
-        <v>60295.82475200815</v>
+        <v>60295.82475200816</v>
       </c>
       <c r="L4" t="n">
         <v>60295.82475200816</v>
@@ -26459,7 +26459,7 @@
         <v>20178.62854791442</v>
       </c>
       <c r="P4" t="n">
-        <v>20178.62854791443</v>
+        <v>20178.62854791442</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37131.59695614575</v>
+        <v>37131.59695614576</v>
       </c>
       <c r="F5" t="n">
         <v>37131.59695614575</v>
       </c>
       <c r="G5" t="n">
-        <v>42056.51730876477</v>
+        <v>42056.51730876476</v>
       </c>
       <c r="H5" t="n">
-        <v>42056.51730876477</v>
+        <v>42056.51730876476</v>
       </c>
       <c r="I5" t="n">
         <v>49057.33151137638</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129057.627021119</v>
+        <v>129048.8273354896</v>
       </c>
       <c r="C6" t="n">
-        <v>129057.6270211189</v>
+        <v>129048.8273354896</v>
       </c>
       <c r="D6" t="n">
-        <v>129057.6270211189</v>
+        <v>129048.8273354895</v>
       </c>
       <c r="E6" t="n">
-        <v>-313067.3733981014</v>
+        <v>-313806.1546187552</v>
       </c>
       <c r="F6" t="n">
-        <v>227503.4415905973</v>
+        <v>226764.6603699434</v>
       </c>
       <c r="G6" t="n">
-        <v>217121.6089793657</v>
+        <v>216497.5664146351</v>
       </c>
       <c r="H6" t="n">
-        <v>239323.0365262012</v>
+        <v>238698.9939614703</v>
       </c>
       <c r="I6" t="n">
-        <v>218592.7243965289</v>
+        <v>218084.4171735283</v>
       </c>
       <c r="J6" t="n">
-        <v>249212.1900802906</v>
+        <v>248703.8828572898</v>
       </c>
       <c r="K6" t="n">
-        <v>249212.1900802904</v>
+        <v>248703.8828572897</v>
       </c>
       <c r="L6" t="n">
-        <v>249212.1900802901</v>
+        <v>248703.8828572897</v>
       </c>
       <c r="M6" t="n">
-        <v>161790.5227759667</v>
+        <v>161166.4802112359</v>
       </c>
       <c r="N6" t="n">
-        <v>239323.036526201</v>
+        <v>238698.9939614702</v>
       </c>
       <c r="O6" t="n">
-        <v>227503.4415905972</v>
+        <v>226764.6603699434</v>
       </c>
       <c r="P6" t="n">
-        <v>227503.4415905972</v>
+        <v>226764.6603699435</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>514.433322542548</v>
       </c>
       <c r="P3" t="n">
-        <v>514.433322542548</v>
+        <v>514.4333225425481</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302336</v>
+        <v>426.2656336302337</v>
       </c>
       <c r="F4" t="n">
         <v>426.2656336302336</v>
       </c>
       <c r="G4" t="n">
-        <v>507.267613114099</v>
+        <v>507.2676131140989</v>
       </c>
       <c r="H4" t="n">
-        <v>507.267613114099</v>
+        <v>507.2676131140989</v>
       </c>
       <c r="I4" t="n">
         <v>622.4125835517901</v>
@@ -26828,7 +26828,7 @@
         <v>507.2676131140988</v>
       </c>
       <c r="O4" t="n">
-        <v>426.2656336302337</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="P4" t="n">
         <v>426.2656336302337</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302336</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.00197948386517</v>
+        <v>81.00197948386521</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1449704376911</v>
+        <v>115.1449704376912</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>311.1206631925423</v>
+        <v>311.1206631925425</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.2656336302336</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>81.00197948386517</v>
+        <v>81.00197948386521</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>2.068073658462503</v>
       </c>
       <c r="H44" t="n">
-        <v>21.17965935472911</v>
+        <v>21.17965935472912</v>
       </c>
       <c r="I44" t="n">
-        <v>79.72940971787573</v>
+        <v>79.72940971787574</v>
       </c>
       <c r="J44" t="n">
-        <v>175.525166669932</v>
+        <v>175.5251666699321</v>
       </c>
       <c r="K44" t="n">
-        <v>263.0667246326498</v>
+        <v>263.0667246326499</v>
       </c>
       <c r="L44" t="n">
-        <v>326.3575338578217</v>
+        <v>326.3575338578218</v>
       </c>
       <c r="M44" t="n">
         <v>363.1356387815043</v>
       </c>
       <c r="N44" t="n">
-        <v>369.0115530636108</v>
+        <v>369.011553063611</v>
       </c>
       <c r="O44" t="n">
-        <v>348.4471456222743</v>
+        <v>348.4471456222744</v>
       </c>
       <c r="P44" t="n">
-        <v>297.3915771789812</v>
+        <v>297.3915771789813</v>
       </c>
       <c r="Q44" t="n">
         <v>223.3286892852928</v>
@@ -34395,10 +34395,10 @@
         <v>129.9086319483953</v>
       </c>
       <c r="S44" t="n">
-        <v>47.12622849221434</v>
+        <v>47.12622849221435</v>
       </c>
       <c r="T44" t="n">
-        <v>9.052992439919612</v>
+        <v>9.052992439919613</v>
       </c>
       <c r="U44" t="n">
         <v>0.1654458926770002</v>
@@ -34441,10 +34441,10 @@
         <v>1.106516957921707</v>
       </c>
       <c r="H45" t="n">
-        <v>10.68662430413859</v>
+        <v>10.6866243041386</v>
       </c>
       <c r="I45" t="n">
-        <v>38.09718473546229</v>
+        <v>38.0971847354623</v>
       </c>
       <c r="J45" t="n">
         <v>104.5415868008399</v>
@@ -34453,13 +34453,13 @@
         <v>178.6782229815943</v>
       </c>
       <c r="L45" t="n">
-        <v>240.2549210610268</v>
+        <v>240.2549210610269</v>
       </c>
       <c r="M45" t="n">
-        <v>280.3661607856886</v>
+        <v>280.3661607856887</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7866188061373</v>
+        <v>287.7866188061374</v>
       </c>
       <c r="O45" t="n">
         <v>263.2685325279774</v>
@@ -34471,16 +34471,16 @@
         <v>141.2459190497955</v>
       </c>
       <c r="R45" t="n">
-        <v>68.70111428219163</v>
+        <v>68.70111428219164</v>
       </c>
       <c r="S45" t="n">
         <v>20.55306717894047</v>
       </c>
       <c r="T45" t="n">
-        <v>4.460039843552844</v>
+        <v>4.460039843552845</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07279716828432287</v>
+        <v>0.07279716828432288</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9276666472078734</v>
+        <v>0.9276666472078735</v>
       </c>
       <c r="H46" t="n">
-        <v>8.247799826993644</v>
+        <v>8.247799826993646</v>
       </c>
       <c r="I46" t="n">
-        <v>27.89746608148769</v>
+        <v>27.8974660814877</v>
       </c>
       <c r="J46" t="n">
-        <v>65.58603195759665</v>
+        <v>65.58603195759666</v>
       </c>
       <c r="K46" t="n">
         <v>107.777997739242</v>
@@ -34535,22 +34535,22 @@
         <v>137.9187304403415</v>
       </c>
       <c r="M46" t="n">
-        <v>145.4159636164123</v>
+        <v>145.4159636164124</v>
       </c>
       <c r="N46" t="n">
-        <v>141.958297022274</v>
+        <v>141.9582970222741</v>
       </c>
       <c r="O46" t="n">
-        <v>131.1214639162547</v>
+        <v>131.1214639162548</v>
       </c>
       <c r="P46" t="n">
         <v>112.197064313214</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.67943170392475</v>
+        <v>77.67943170392476</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71126579172855</v>
+        <v>41.71126579172856</v>
       </c>
       <c r="S46" t="n">
         <v>16.1666996608863</v>
@@ -34559,7 +34559,7 @@
         <v>3.963666583524549</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05059999893861133</v>
+        <v>0.05059999893861134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>17.55607926950006</v>
       </c>
       <c r="J12" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K12" t="n">
-        <v>177.0555788069916</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L12" t="n">
         <v>184.1403972501778</v>
@@ -35509,10 +35509,10 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q12" t="n">
-        <v>426.2656336302336</v>
+        <v>145.4807717840707</v>
       </c>
       <c r="R12" t="n">
-        <v>9.700915176786218</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>263.8914600849369</v>
       </c>
       <c r="L13" t="n">
-        <v>83.29043654643996</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2656336302336</v>
+        <v>426.2656336302337</v>
       </c>
       <c r="N13" t="n">
-        <v>90.24565151385458</v>
+        <v>106.1141974799881</v>
       </c>
       <c r="O13" t="n">
-        <v>280.516274465135</v>
+        <v>75.04656584325841</v>
       </c>
       <c r="P13" t="n">
         <v>319.9500342623174</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.86936079737</v>
+        <v>16.31990604399918</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>276.0992623069915</v>
       </c>
       <c r="O14" t="n">
-        <v>255.2573699964913</v>
+        <v>255.2573699964912</v>
       </c>
       <c r="P14" t="n">
         <v>203.742213898097</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J15" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K15" t="n">
-        <v>226.7171115878143</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L15" t="n">
         <v>184.1403972501778</v>
@@ -35740,16 +35740,16 @@
         <v>234.5932254123873</v>
       </c>
       <c r="O15" t="n">
-        <v>426.2656336302336</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P15" t="n">
         <v>157.0365725147194</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.55330054495676</v>
+        <v>234.3390712557684</v>
       </c>
       <c r="R15" t="n">
-        <v>98.55921464848444</v>
+        <v>9.700915176786218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>79.81082933659718</v>
       </c>
       <c r="K16" t="n">
-        <v>55.52762818017517</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L16" t="n">
-        <v>83.29043654643996</v>
+        <v>288.7601451683169</v>
       </c>
       <c r="M16" t="n">
-        <v>186.4536581302802</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="N16" t="n">
-        <v>425.633834794244</v>
+        <v>90.24565151385458</v>
       </c>
       <c r="O16" t="n">
-        <v>393.3038985894609</v>
+        <v>75.04656584325841</v>
       </c>
       <c r="P16" t="n">
         <v>319.9500342623174</v>
@@ -35901,10 +35901,10 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P17" t="n">
-        <v>507.267613114099</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.5045963537269</v>
+        <v>454.0299955697285</v>
       </c>
       <c r="R17" t="n">
         <v>42.5964891336718</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J18" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K18" t="n">
         <v>122.8524401969789</v>
@@ -35974,7 +35974,7 @@
         <v>222.8018770472712</v>
       </c>
       <c r="N18" t="n">
-        <v>507.267613114099</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O18" t="n">
         <v>205.5170535279774</v>
@@ -35983,7 +35983,7 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q18" t="n">
-        <v>457.2272750199251</v>
+        <v>466.2158824676582</v>
       </c>
       <c r="R18" t="n">
         <v>98.55921464848444</v>
@@ -36044,7 +36044,7 @@
         <v>79.81082933659718</v>
       </c>
       <c r="K19" t="n">
-        <v>253.7706878716329</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L19" t="n">
         <v>400.4410539555541</v>
@@ -36053,7 +36053,7 @@
         <v>437.6018792128702</v>
       </c>
       <c r="N19" t="n">
-        <v>425.633834794244</v>
+        <v>287.9636078275684</v>
       </c>
       <c r="O19" t="n">
         <v>75.04656584325841</v>
@@ -36062,7 +36062,7 @@
         <v>319.9500342623174</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.31990604399918</v>
+        <v>143.86936079737</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>422.9366860202121</v>
+        <v>102.2015753366241</v>
       </c>
       <c r="K20" t="n">
         <v>173.9303349594327</v>
@@ -36141,7 +36141,7 @@
         <v>203.742213898097</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.2948848861407</v>
+        <v>454.0299955697285</v>
       </c>
       <c r="R20" t="n">
         <v>42.5964891336718</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J21" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K21" t="n">
-        <v>507.267613114099</v>
+        <v>183.302455931001</v>
       </c>
       <c r="L21" t="n">
         <v>184.1403972501778</v>
@@ -36220,7 +36220,7 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q21" t="n">
-        <v>434.3447892762148</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R21" t="n">
         <v>9.700915176786218</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K22" t="n">
         <v>263.8914600849369</v>
@@ -36290,16 +36290,16 @@
         <v>437.6018792128702</v>
       </c>
       <c r="N22" t="n">
-        <v>425.633834794244</v>
+        <v>287.9636078275684</v>
       </c>
       <c r="O22" t="n">
-        <v>393.3038985894609</v>
+        <v>75.04656584325841</v>
       </c>
       <c r="P22" t="n">
-        <v>57.22987236476681</v>
+        <v>319.9500342623174</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.31990604399918</v>
+        <v>143.86936079737</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2015753366241</v>
+        <v>336.1469323728946</v>
       </c>
       <c r="K23" t="n">
         <v>173.9303349594327</v>
@@ -36375,13 +36375,13 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P23" t="n">
-        <v>565.9660225264294</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q23" t="n">
         <v>547.7337466542746</v>
       </c>
       <c r="R23" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J24" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K24" t="n">
-        <v>122.8524401969789</v>
+        <v>504.51502211968</v>
       </c>
       <c r="L24" t="n">
         <v>184.1403972501778</v>
       </c>
       <c r="M24" t="n">
-        <v>569.1891805562458</v>
+        <v>222.8018770472712</v>
       </c>
       <c r="N24" t="n">
-        <v>622.4125835517901</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O24" t="n">
         <v>205.5170535279774</v>
@@ -36460,7 +36460,7 @@
         <v>84.55330054495676</v>
       </c>
       <c r="R24" t="n">
-        <v>9.700915176786218</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>79.81082933659718</v>
       </c>
       <c r="K25" t="n">
-        <v>263.8914600849372</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L25" t="n">
         <v>400.4410539555541</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2015753366241</v>
+        <v>432.2781681525121</v>
       </c>
       <c r="K26" t="n">
         <v>173.9303349594327</v>
@@ -36612,13 +36612,13 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P26" t="n">
-        <v>565.9660225264294</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q26" t="n">
         <v>547.7337466542746</v>
       </c>
       <c r="R26" t="n">
-        <v>42.5964891336718</v>
+        <v>74.74370494611605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K27" t="n">
-        <v>446.9882361849787</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L27" t="n">
         <v>184.1403972501778</v>
@@ -36697,7 +36697,7 @@
         <v>494.6241662053342</v>
       </c>
       <c r="R27" t="n">
-        <v>9.700915176786218</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>319.9500342623174</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.8693607973706</v>
+        <v>143.86936079737</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2015753366241</v>
+        <v>432.2781681525121</v>
       </c>
       <c r="K29" t="n">
         <v>173.9303349594327</v>
@@ -36843,19 +36843,19 @@
         <v>269.8454143244588</v>
       </c>
       <c r="N29" t="n">
-        <v>622.4125835517901</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O29" t="n">
-        <v>266.9363494944654</v>
+        <v>255.2573699964912</v>
       </c>
       <c r="P29" t="n">
-        <v>622.4125835517901</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.2948848861407</v>
+        <v>451.6025108746571</v>
       </c>
       <c r="R29" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>299.3020489853179</v>
       </c>
       <c r="K30" t="n">
-        <v>122.8524401969789</v>
+        <v>200.8585352005007</v>
       </c>
       <c r="L30" t="n">
-        <v>622.4125835517901</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M30" t="n">
         <v>222.8018770472712</v>
@@ -36928,10 +36928,10 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P30" t="n">
-        <v>206.8413468770065</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R30" t="n">
         <v>9.700915176786218</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2015753366241</v>
+        <v>432.2781681525121</v>
       </c>
       <c r="K32" t="n">
         <v>173.9303349594327</v>
       </c>
       <c r="L32" t="n">
-        <v>593.0959444233093</v>
+        <v>230.8721357949769</v>
       </c>
       <c r="M32" t="n">
         <v>269.8454143244588</v>
@@ -37092,7 +37092,7 @@
         <v>547.7337466542746</v>
       </c>
       <c r="R32" t="n">
-        <v>42.5964891336718</v>
+        <v>74.74370494611605</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K33" t="n">
         <v>122.8524401969789</v>
@@ -37165,13 +37165,13 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P33" t="n">
-        <v>481.1723685027194</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q33" t="n">
-        <v>494.6241662053342</v>
+        <v>483.771961737158</v>
       </c>
       <c r="R33" t="n">
-        <v>9.700915176786218</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>400.4410539555541</v>
       </c>
       <c r="M34" t="n">
-        <v>437.6018792128705</v>
+        <v>437.6018792128702</v>
       </c>
       <c r="N34" t="n">
         <v>425.633834794244</v>
@@ -37387,7 +37387,7 @@
         <v>299.3020489853179</v>
       </c>
       <c r="K36" t="n">
-        <v>171.8400607898006</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L36" t="n">
         <v>184.1403972501778</v>
@@ -37402,13 +37402,13 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P36" t="n">
-        <v>507.2676131140988</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R36" t="n">
-        <v>98.55921464848444</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K37" t="n">
-        <v>55.52762818017517</v>
+        <v>71.49671196106638</v>
       </c>
       <c r="L37" t="n">
         <v>400.4410539555541</v>
@@ -37475,13 +37475,13 @@
         <v>437.6018792128702</v>
       </c>
       <c r="N37" t="n">
-        <v>243.728050048083</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O37" t="n">
         <v>393.3038985894609</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330923</v>
       </c>
       <c r="Q37" t="n">
         <v>143.86936079737</v>
@@ -37548,16 +37548,16 @@
         <v>173.9303349594327</v>
       </c>
       <c r="L38" t="n">
-        <v>423.3287948865023</v>
+        <v>230.8721357949769</v>
       </c>
       <c r="M38" t="n">
-        <v>269.8454143244588</v>
+        <v>507.2676131140988</v>
       </c>
       <c r="N38" t="n">
         <v>276.0992623069915</v>
       </c>
       <c r="O38" t="n">
-        <v>255.2573699964912</v>
+        <v>338.5702818904384</v>
       </c>
       <c r="P38" t="n">
         <v>203.742213898097</v>
@@ -37566,7 +37566,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8749407257335</v>
+        <v>42.5964891336718</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>222.8018770472712</v>
       </c>
       <c r="N39" t="n">
-        <v>283.580846005209</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O39" t="n">
         <v>205.5170535279774</v>
       </c>
       <c r="P39" t="n">
-        <v>507.2676131140988</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R39" t="n">
-        <v>98.55921464848444</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K40" t="n">
-        <v>55.52762818017517</v>
+        <v>199.0461667144375</v>
       </c>
       <c r="L40" t="n">
-        <v>346.0847239627643</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M40" t="n">
         <v>437.6018792128702</v>
@@ -37718,7 +37718,7 @@
         <v>393.3038985894609</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330923</v>
       </c>
       <c r="Q40" t="n">
         <v>16.31990604399918</v>
@@ -37785,7 +37785,7 @@
         <v>173.9303349594327</v>
       </c>
       <c r="L41" t="n">
-        <v>230.8721357949767</v>
+        <v>230.8721357949769</v>
       </c>
       <c r="M41" t="n">
         <v>269.8454143244588</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>124.9315658803529</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K42" t="n">
         <v>122.8524401969789</v>
@@ -37879,7 +37879,7 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q42" t="n">
-        <v>426.2656336302337</v>
+        <v>251.8951505252684</v>
       </c>
       <c r="R42" t="n">
         <v>9.700915176786218</v>
@@ -37943,10 +37943,10 @@
         <v>55.52762818017517</v>
       </c>
       <c r="L43" t="n">
-        <v>83.29043654643996</v>
+        <v>300.2186704508213</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2656336302337</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="N43" t="n">
         <v>425.633834794244</v>
@@ -37955,7 +37955,7 @@
         <v>393.3038985894609</v>
       </c>
       <c r="P43" t="n">
-        <v>273.3454565776907</v>
+        <v>56.41722267330923</v>
       </c>
       <c r="Q43" t="n">
         <v>16.31990604399918</v>
@@ -38022,25 +38022,25 @@
         <v>173.9303349594327</v>
       </c>
       <c r="L44" t="n">
-        <v>230.8721357949769</v>
+        <v>230.872135794977</v>
       </c>
       <c r="M44" t="n">
-        <v>269.8454143244588</v>
+        <v>269.8454143244589</v>
       </c>
       <c r="N44" t="n">
-        <v>276.0992623069915</v>
+        <v>276.0992623069916</v>
       </c>
       <c r="O44" t="n">
-        <v>255.2573699964912</v>
+        <v>255.2573699964913</v>
       </c>
       <c r="P44" t="n">
-        <v>203.742213898097</v>
+        <v>203.7422138980972</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.2948848861407</v>
+        <v>133.2948848861408</v>
       </c>
       <c r="R44" t="n">
-        <v>42.5964891336718</v>
+        <v>42.59648913367182</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>53.17234800083988</v>
+        <v>53.17234800083991</v>
       </c>
       <c r="K45" t="n">
         <v>122.8524401969789</v>
       </c>
       <c r="L45" t="n">
-        <v>328.3828870994535</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M45" t="n">
-        <v>222.8018770472712</v>
+        <v>222.8018770472713</v>
       </c>
       <c r="N45" t="n">
-        <v>234.5932254123873</v>
+        <v>234.5932254123874</v>
       </c>
       <c r="O45" t="n">
         <v>205.5170535279774</v>
       </c>
       <c r="P45" t="n">
+        <v>157.0365725147195</v>
+      </c>
+      <c r="Q45" t="n">
         <v>426.2656336302337</v>
       </c>
-      <c r="Q45" t="n">
-        <v>84.55330054495676</v>
-      </c>
       <c r="R45" t="n">
-        <v>9.700915176786218</v>
+        <v>81.46013305629918</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.15288627464123</v>
+        <v>14.15288627464124</v>
       </c>
       <c r="K46" t="n">
-        <v>217.8684943596555</v>
+        <v>55.52762818017518</v>
       </c>
       <c r="L46" t="n">
-        <v>400.4410539555541</v>
+        <v>300.2186704508213</v>
       </c>
       <c r="M46" t="n">
         <v>426.2656336302337</v>
       </c>
       <c r="N46" t="n">
-        <v>90.24565151385458</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O46" t="n">
-        <v>75.04656584325841</v>
+        <v>393.303898589461</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330926</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.86936079737</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
